--- a/traces/Visualizations/classCountWithGraph.xlsx
+++ b/traces/Visualizations/classCountWithGraph.xlsx
@@ -15,6 +15,9 @@
     <sheet name="classCount" sheetId="1" r:id="rId1"/>
     <sheet name="Graph" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">classCount!$A$1:$B$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -774,100 +777,100 @@
               <c:strCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
+                  <c:v>org.apache.commons.net.ftp.FTPCommand</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>org.apache.commons.net.ftp.FTPCommandTest</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>org.apache.commons.net.ftp.TestConnectTimeout</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>org.apache.commons.net.ftp.FTPClientTest$LocalClient</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>org.apache.commons.net.ftp.FTPClientConfigFunctionalTest</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>org.apache.commons.net.ftp.FTPClientTest</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>org.apache.commons.net.ftp.FTPClientConfigTest</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>org.apache.commons.net.io.Util</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>org.apache.commons.net.util.Charsets</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>org.apache.commons.net.ftp.parser.CompositeFileEntryParser</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>org.apache.commons.net.ftp.parser.NTFTPEntryParser</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>org.apache.commons.net.ftp.parser.DefaultFTPFileEntryParserFactory</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>org.apache.commons.net.ftp.FTPListParseEngine</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>org.apache.commons.net.ftp.ListingFunctionalTest</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>org.apache.commons.net.ftp.parser.VMSVersioningFTPEntryParser</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>org.apache.commons.net.ftp.FTPCmd</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>org.apache.commons.net.ftp.FTPReply</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>org.apache.commons.net.ftp.parser.VMSFTPEntryParser</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>org.apache.commons.net.util.ListenerList</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>org.apache.commons.net.ProtocolCommandSupport</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>org.apache.commons.net.io.CRLFLineReader</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>org.apache.commons.net.ftp.FTPClientConfig</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>org.apache.commons.net.ftp.FTPClient</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>org.apache.commons.net.SocketClient</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>org.apache.commons.net.ftp.FTPClient</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>org.apache.commons.net.ftp.FTPClientConfig</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="24">
+                  <c:v>org.apache.commons.net.ftp.FTPFileFilters$2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>org.apache.commons.net.ftp.parser.UnixFTPEntryParser</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>org.apache.commons.net.ftp.parser.ConfigurableFTPFileEntryParserImpl</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>org.apache.commons.net.ftp.FTPFileEntryParserImpl</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>org.apache.commons.net.ftp.FTP</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>org.apache.commons.net.io.CRLFLineReader</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>org.apache.commons.net.util.ListenerList</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>org.apache.commons.net.ProtocolCommandSupport</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>org.apache.commons.net.ftp.FTPReply</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>org.apache.commons.net.ftp.FTPCmd</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>org.apache.commons.net.ftp.FTPClientConfigFunctionalTest</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="29">
+                  <c:v>org.apache.commons.net.ftp.parser.FTPTimestampParserImpl</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>org.apache.commons.net.ftp.parser.RegexFTPFileEntryParserImpl</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>org.apache.commons.net.ftp.parser.FTPTimestampParserImpl</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>org.apache.commons.net.ftp.parser.UnixFTPEntryParser</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>org.apache.commons.net.ftp.parser.ConfigurableFTPFileEntryParserImpl</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>org.apache.commons.net.ftp.parser.DefaultFTPFileEntryParserFactory</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>org.apache.commons.net.util.Charsets</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>org.apache.commons.net.ftp.FTPFileEntryParserImpl</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>org.apache.commons.net.ftp.FTPListParseEngine</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>org.apache.commons.net.io.Util</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="31">
                   <c:v>org.apache.commons.net.ftp.FTPFile</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>org.apache.commons.net.ftp.FTPFileFilters$2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>org.apache.commons.net.ftp.FTPClientConfigTest</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>org.apache.commons.net.ftp.FTPClientTest</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>org.apache.commons.net.ftp.parser.VMSFTPEntryParser</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>org.apache.commons.net.ftp.FTPClientTest$LocalClient</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>org.apache.commons.net.ftp.FTPCommand</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>org.apache.commons.net.ftp.FTPCommandTest</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>org.apache.commons.net.ftp.ListingFunctionalTest</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>org.apache.commons.net.ftp.parser.VMSVersioningFTPEntryParser</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>org.apache.commons.net.ftp.parser.NTFTPEntryParser</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>org.apache.commons.net.ftp.parser.CompositeFileEntryParser</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>org.apache.commons.net.ftp.TestConnectTimeout</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -879,100 +882,100 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>1107</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>890</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>729</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="24">
+                  <c:v>1516</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1599</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1725</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2078</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>3737</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>690</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>562</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>562</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="29">
+                  <c:v>8935</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>29750</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>8935</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1599</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1725</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2078</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="31">
                   <c:v>51563</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1516</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -987,11 +990,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="462624352"/>
-        <c:axId val="462613768"/>
+        <c:axId val="233528136"/>
+        <c:axId val="233528528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="462624352"/>
+        <c:axId val="233528136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1034,7 +1037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462613768"/>
+        <c:crossAx val="233528528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1042,7 +1045,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="462613768"/>
+        <c:axId val="233528528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1093,7 +1096,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462624352"/>
+        <c:crossAx val="233528136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1986,7 +1989,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2005,261 +2008,266 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1107</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>890</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>729</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3737</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>690</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>562</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>562</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>320</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>242</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>29750</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>8935</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>1599</v>
+        <v>141</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>1725</v>
+        <v>148</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>30</v>
+        <v>242</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2078</v>
+        <v>320</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>141</v>
+        <v>371</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>28</v>
+        <v>562</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>51563</v>
+        <v>562</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>1516</v>
+        <v>690</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>6</v>
+        <v>729</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>4</v>
+        <v>890</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>371</v>
+        <v>1107</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>3</v>
+        <v>1516</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>1</v>
+        <v>1599</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>1</v>
+        <v>1725</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>148</v>
+        <v>2078</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>166</v>
+        <v>3737</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>54</v>
+        <v>8935</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>52</v>
+        <v>29750</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>1</v>
+        <v>51563</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B1">
+    <sortState ref="A2:B33">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
